--- a/Lab2-Rectangles/graphs.xlsx
+++ b/Lab2-Rectangles/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\YandexDisk\HSE\Algorithms\HSE-Algorithms\Lab2-Rectangles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800124AE-16A4-4117-AA66-2EDD4D6DD2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F30AC1-0258-4B01-BFBB-EC6DADC2685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preparation" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
-  <si>
-    <t>10^1</t>
-  </si>
-  <si>
-    <t>10^2</t>
-  </si>
-  <si>
-    <t>10^3</t>
-  </si>
-  <si>
-    <t>10^4</t>
-  </si>
-  <si>
-    <t>10^5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>BruteForce</t>
   </si>
@@ -46,6 +31,45 @@
   </si>
   <si>
     <t>Tree</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>2^9</t>
+  </si>
+  <si>
+    <t>2^10</t>
+  </si>
+  <si>
+    <t>2^11</t>
+  </si>
+  <si>
+    <t>2^12</t>
+  </si>
+  <si>
+    <t>2^13</t>
   </si>
 </sst>
 </file>
@@ -715,47 +739,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>preparation!$A$2:$A$6</c:f>
+              <c:f>preparation!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>preparation!$B$2:$B$6</c:f>
+              <c:f>preparation!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5600</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4300</c:v>
+                <c:pt idx="7">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,46 +867,94 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>preparation!$A$2:$A$6</c:f>
+              <c:f>preparation!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>preparation!$C$2:$C$6</c:f>
+              <c:f>preparation!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>341100</c:v>
+                  <c:v>67800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258264800</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307915594300</c:v>
+                  <c:v>228200</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1149100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8394800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65212700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555687100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4653275800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38495934900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337959524800</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -864,7 +984,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -875,47 +995,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>preparation!$A$2:$A$6</c:f>
+              <c:f>preparation!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>preparation!$D$2:$D$6</c:f>
+              <c:f>preparation!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>190100</c:v>
+                  <c:v>126500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2430900</c:v>
+                  <c:v>76700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39106700</c:v>
+                  <c:v>123200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>714181600</c:v>
+                  <c:v>258600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9580575100</c:v>
+                  <c:v>757600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1539600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3203300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7478600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18872000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38280100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92979500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245612500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>597589500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,47 +1414,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>query!$A$2:$A$6</c:f>
+              <c:f>query!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query!$B$2:$B$6</c:f>
+              <c:f>query!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5981300</c:v>
+                  <c:v>2251000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46591800</c:v>
+                  <c:v>3148700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460847800</c:v>
+                  <c:v>5205500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5513543300</c:v>
+                  <c:v>8436000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43013708400</c:v>
+                  <c:v>15849500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30695800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58267200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117432400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232107200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522256600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>968796100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018470500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4481365100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,46 +1542,94 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>query!$A$2:$A$6</c:f>
+              <c:f>query!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query!$C$2:$C$6</c:f>
+              <c:f>query!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16381000</c:v>
+                  <c:v>13053800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22428800</c:v>
+                  <c:v>14619300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34453800</c:v>
+                  <c:v>16529900</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>18059500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19327900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21073200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24213600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30879300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35077400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38355600</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1395,7 +1659,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1406,47 +1670,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>query!$A$2:$A$6</c:f>
+              <c:f>query!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query!$D$2:$D$6</c:f>
+              <c:f>query!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4173200</c:v>
+                  <c:v>3027200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6067500</c:v>
+                  <c:v>3460100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8396500</c:v>
+                  <c:v>3927900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122049300</c:v>
+                  <c:v>4429500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146744400</c:v>
+                  <c:v>5172100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5365700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5906900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6656500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8176300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8720800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12611700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25535000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85206500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,47 +2101,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>sum!$A$2:$A$6</c:f>
+              <c:f>sum!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sum!$B$2:$B$6</c:f>
+              <c:f>sum!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5986900</c:v>
+                  <c:v>2259000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46596000</c:v>
+                  <c:v>3153300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460851800</c:v>
+                  <c:v>5213100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5513548200</c:v>
+                  <c:v>8439900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43013712700</c:v>
+                  <c:v>15856700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30702600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58271200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117436800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232109500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522261400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>968799200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018474400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4481369200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,46 +2229,94 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>sum!$A$2:$A$6</c:f>
+              <c:f>sum!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sum!$C$2:$C$6</c:f>
+              <c:f>sum!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16722100</c:v>
+                  <c:v>13121600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280693600</c:v>
+                  <c:v>14737300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307950048100</c:v>
+                  <c:v>16758100</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19208600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27722700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86285900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579900700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4684155100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38531012300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337997880400</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1938,7 +2346,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1949,47 +2357,95 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>sum!$A$2:$A$6</c:f>
+              <c:f>sum!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10^1</c:v>
+                  <c:v>2^1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^2</c:v>
+                  <c:v>2^2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^3</c:v>
+                  <c:v>2^3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10^4</c:v>
+                  <c:v>2^4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10^5</c:v>
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2^13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sum!$D$2:$D$6</c:f>
+              <c:f>sum!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4363300</c:v>
+                  <c:v>3153700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8498400</c:v>
+                  <c:v>3536800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47503200</c:v>
+                  <c:v>4051100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>836230900</c:v>
+                  <c:v>4688100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9727319500</c:v>
+                  <c:v>5929700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6905300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9110200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14135100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27048300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47000900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105591200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271147500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>682796000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,83 +4767,195 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>8000</v>
       </c>
       <c r="C2">
-        <v>341100</v>
+        <v>67800</v>
       </c>
       <c r="D2">
-        <v>190100</v>
+        <v>126500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="C3">
-        <v>258264800</v>
+        <v>118000</v>
       </c>
       <c r="D3">
-        <v>2430900</v>
+        <v>76700</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="C4">
-        <v>307915594300</v>
+        <v>228200</v>
       </c>
       <c r="D4">
-        <v>39106700</v>
+        <v>123200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1149100</v>
       </c>
       <c r="D5">
-        <v>714181600</v>
+        <v>258600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>4300</v>
+        <v>7200</v>
       </c>
       <c r="C6">
+        <v>8394800</v>
+      </c>
+      <c r="D6">
+        <v>757600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6800</v>
+      </c>
+      <c r="C7">
+        <v>65212700</v>
+      </c>
+      <c r="D7">
+        <v>1539600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4000</v>
+      </c>
+      <c r="C8">
+        <v>555687100</v>
+      </c>
+      <c r="D8">
+        <v>3203300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4400</v>
+      </c>
+      <c r="C9">
+        <v>4653275800</v>
+      </c>
+      <c r="D9">
+        <v>7478600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2300</v>
+      </c>
+      <c r="C10">
+        <v>38495934900</v>
+      </c>
+      <c r="D10">
+        <v>18872000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4800</v>
+      </c>
+      <c r="C11">
+        <v>337959524800</v>
+      </c>
+      <c r="D11">
+        <v>38280100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3100</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>9580575100</v>
+      <c r="D12">
+        <v>92979500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>3900</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>245612500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4100</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>597589500</v>
       </c>
     </row>
   </sheetData>
@@ -4398,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9FE433-2042-4ECC-AACA-C2220027BC27}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4413,83 +4981,195 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5981300</v>
+        <v>2251000</v>
       </c>
       <c r="C2">
-        <v>16381000</v>
+        <v>13053800</v>
       </c>
       <c r="D2">
-        <v>4173200</v>
+        <v>3027200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>46591800</v>
+        <v>3148700</v>
       </c>
       <c r="C3">
-        <v>22428800</v>
+        <v>14619300</v>
       </c>
       <c r="D3">
-        <v>6067500</v>
+        <v>3460100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>460847800</v>
+        <v>5205500</v>
       </c>
       <c r="C4">
-        <v>34453800</v>
+        <v>16529900</v>
       </c>
       <c r="D4">
-        <v>8396500</v>
+        <v>3927900</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5513543300</v>
+        <v>8436000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>18059500</v>
       </c>
       <c r="D5">
-        <v>122049300</v>
+        <v>4429500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>43013708400</v>
+        <v>15849500</v>
       </c>
       <c r="C6">
+        <v>19327900</v>
+      </c>
+      <c r="D6">
+        <v>5172100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>30695800</v>
+      </c>
+      <c r="C7">
+        <v>21073200</v>
+      </c>
+      <c r="D7">
+        <v>5365700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>58267200</v>
+      </c>
+      <c r="C8">
+        <v>24213600</v>
+      </c>
+      <c r="D8">
+        <v>5906900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>117432400</v>
+      </c>
+      <c r="C9">
+        <v>30879300</v>
+      </c>
+      <c r="D9">
+        <v>6656500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>232107200</v>
+      </c>
+      <c r="C10">
+        <v>35077400</v>
+      </c>
+      <c r="D10">
+        <v>8176300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>522256600</v>
+      </c>
+      <c r="C11">
+        <v>38355600</v>
+      </c>
+      <c r="D11">
+        <v>8720800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>968796100</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>146744400</v>
+      <c r="D12">
+        <v>12611700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2018470500</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>25535000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4481365100</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>85206500</v>
       </c>
     </row>
   </sheetData>
@@ -4500,10 +5180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F77BBAC-DBE2-404B-8054-09C0E0AAB39F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4515,83 +5195,195 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5986900</v>
+        <v>2259000</v>
       </c>
       <c r="C2">
-        <v>16722100</v>
+        <v>13121600</v>
       </c>
       <c r="D2">
-        <v>4363300</v>
+        <v>3153700</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>46596000</v>
+        <v>3153300</v>
       </c>
       <c r="C3">
-        <v>280693600</v>
+        <v>14737300</v>
       </c>
       <c r="D3">
-        <v>8498400</v>
+        <v>3536800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>460851800</v>
+        <v>5213100</v>
       </c>
       <c r="C4">
-        <v>307950048100</v>
+        <v>16758100</v>
       </c>
       <c r="D4">
-        <v>47503200</v>
+        <v>4051100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5513548200</v>
+        <v>8439900</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>19208600</v>
       </c>
       <c r="D5">
-        <v>836230900</v>
+        <v>4688100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>43013712700</v>
+        <v>15856700</v>
       </c>
       <c r="C6">
+        <v>27722700</v>
+      </c>
+      <c r="D6">
+        <v>5929700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>30702600</v>
+      </c>
+      <c r="C7">
+        <v>86285900</v>
+      </c>
+      <c r="D7">
+        <v>6905300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>58271200</v>
+      </c>
+      <c r="C8">
+        <v>579900700</v>
+      </c>
+      <c r="D8">
+        <v>9110200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>117436800</v>
+      </c>
+      <c r="C9">
+        <v>4684155100</v>
+      </c>
+      <c r="D9">
+        <v>14135100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>232109500</v>
+      </c>
+      <c r="C10">
+        <v>38531012300</v>
+      </c>
+      <c r="D10">
+        <v>27048300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>522261400</v>
+      </c>
+      <c r="C11">
+        <v>337997880400</v>
+      </c>
+      <c r="D11">
+        <v>47000900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>968799200</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>9727319500</v>
+      <c r="D12">
+        <v>105591200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2018474400</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>271147500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4481369200</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>682796000</v>
       </c>
     </row>
   </sheetData>
